--- a/2024/1 achiz pre re.xlsx
+++ b/2024/1 achiz pre re.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\1-achiz\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521308C6-81FB-485D-90D9-D886906EF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A51BC86-6F7D-4463-8CF9-338357329D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3463,42 +3463,18 @@
     <t>dec/DataSet/Data/CAP2_R131_C9</t>
   </si>
   <si>
-    <t>CAP21_R120_C1</t>
-  </si>
-  <si>
     <t>Rînd. 120 col.1</t>
   </si>
   <si>
-    <t>dec/DataSet/Data/CAP2_R120_C1</t>
-  </si>
-  <si>
     <t>Rînd. 121 col.2</t>
   </si>
   <si>
-    <t>dec/DataSet/Data/CAP2_R121_C2</t>
-  </si>
-  <si>
-    <t>CAP21_R121_C2</t>
-  </si>
-  <si>
-    <t>CAP21_R122_C1</t>
-  </si>
-  <si>
     <t>Rînd. 122 col.1</t>
   </si>
   <si>
-    <t>dec/DataSet/Data/CAP2_R122_C1</t>
-  </si>
-  <si>
-    <t>CAP21_R123_C2</t>
-  </si>
-  <si>
     <t>Rînd. 123 col.2</t>
   </si>
   <si>
-    <t>dec/DataSet/Data/CAP2_R123_C2</t>
-  </si>
-  <si>
     <t>Rînd. 180 col.1</t>
   </si>
   <si>
@@ -6635,6 +6611,30 @@
   </si>
   <si>
     <t>dec/DataSet/Data/CAP2_R116_C9</t>
+  </si>
+  <si>
+    <t>CAPI_R120_C1</t>
+  </si>
+  <si>
+    <t>CAPI_R121_C2</t>
+  </si>
+  <si>
+    <t>CAPI_R122_C1</t>
+  </si>
+  <si>
+    <t>CAPI_R123_C2</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAPI_R120_C1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAPI_R121_C2</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAPI_R122_C1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAPI_R123_C2</t>
   </si>
 </sst>
 </file>
@@ -7035,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A744" sqref="A744:C752"/>
+    <sheetView tabSelected="1" topLeftCell="A800" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C809" sqref="C809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7968,16 +7968,16 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>670</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -8033,7 +8033,7 @@
         <v>667</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>668</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>31</v>
@@ -13795,13 +13795,13 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>2162</v>
+        <v>2154</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>100</v>
@@ -13857,13 +13857,13 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>2164</v>
+        <v>2156</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>2165</v>
+        <v>2157</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>2166</v>
+        <v>2158</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>100</v>
@@ -13919,13 +13919,13 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>100</v>
@@ -13981,13 +13981,13 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>2170</v>
+        <v>2162</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>2171</v>
+        <v>2163</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>100</v>
@@ -14043,13 +14043,13 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>100</v>
@@ -14105,13 +14105,13 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>2176</v>
+        <v>2168</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>100</v>
@@ -14167,13 +14167,13 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>100</v>
@@ -14229,13 +14229,13 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>2182</v>
+        <v>2174</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>100</v>
@@ -14291,13 +14291,13 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>100</v>
@@ -14353,13 +14353,13 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>100</v>
@@ -14415,13 +14415,13 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>100</v>
@@ -14477,13 +14477,13 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>100</v>
@@ -14539,13 +14539,13 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>100</v>
@@ -14601,13 +14601,13 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>100</v>
@@ -14663,13 +14663,13 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>100</v>
@@ -14725,13 +14725,13 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>100</v>
@@ -14787,13 +14787,13 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>1292</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>1300</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>100</v>
@@ -14849,13 +14849,13 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>1293</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>1301</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>100</v>
@@ -14911,13 +14911,13 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>1294</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>1302</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>100</v>
@@ -14973,13 +14973,13 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>1295</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>1303</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>100</v>
@@ -15035,13 +15035,13 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>1296</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>1304</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>100</v>
@@ -15097,13 +15097,13 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>1297</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>1305</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>100</v>
@@ -15159,13 +15159,13 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="C129" s="7" t="s">
         <v>1298</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>1306</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>100</v>
@@ -15221,13 +15221,13 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>1299</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>1307</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>100</v>
@@ -15779,13 +15779,13 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>100</v>
@@ -15841,13 +15841,13 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>100</v>
@@ -15903,13 +15903,13 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>100</v>
@@ -15965,13 +15965,13 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>100</v>
@@ -16027,13 +16027,13 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>100</v>
@@ -16089,13 +16089,13 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>100</v>
@@ -16151,13 +16151,13 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>100</v>
@@ -16213,13 +16213,13 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>100</v>
@@ -16275,13 +16275,13 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>100</v>
@@ -16337,13 +16337,13 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>100</v>
@@ -16399,13 +16399,13 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>100</v>
@@ -16461,13 +16461,13 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>100</v>
@@ -16523,13 +16523,13 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>100</v>
@@ -16585,13 +16585,13 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>100</v>
@@ -16647,13 +16647,13 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>100</v>
@@ -16709,13 +16709,13 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>100</v>
@@ -18259,13 +18259,13 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>1316</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>1324</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>100</v>
@@ -18321,13 +18321,13 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>1309</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>1317</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>1325</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>100</v>
@@ -18383,13 +18383,13 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>1318</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>1326</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>100</v>
@@ -18445,13 +18445,13 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="C182" s="7" t="s">
         <v>1319</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>1327</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>100</v>
@@ -18507,13 +18507,13 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="C183" s="7" t="s">
         <v>1320</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>1328</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>100</v>
@@ -18569,13 +18569,13 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="C184" s="7" t="s">
         <v>1321</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>1329</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>100</v>
@@ -18631,13 +18631,13 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="C185" s="7" t="s">
         <v>1322</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>1330</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>100</v>
@@ -18693,13 +18693,13 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="C186" s="7" t="s">
         <v>1323</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>1331</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>100</v>
@@ -18755,13 +18755,13 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>100</v>
@@ -18817,13 +18817,13 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>100</v>
@@ -18879,13 +18879,13 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>100</v>
@@ -18941,13 +18941,13 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>100</v>
@@ -19003,13 +19003,13 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>100</v>
@@ -19065,13 +19065,13 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>100</v>
@@ -19127,13 +19127,13 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>100</v>
@@ -19189,13 +19189,13 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>100</v>
@@ -19251,13 +19251,13 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>100</v>
@@ -19313,13 +19313,13 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>100</v>
@@ -19375,13 +19375,13 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>100</v>
@@ -19437,13 +19437,13 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>100</v>
@@ -19499,13 +19499,13 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>100</v>
@@ -19561,13 +19561,13 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>100</v>
@@ -19623,13 +19623,13 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>100</v>
@@ -19685,13 +19685,13 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>100</v>
@@ -19747,13 +19747,13 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>100</v>
@@ -19809,13 +19809,13 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>100</v>
@@ -19871,13 +19871,13 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>100</v>
@@ -19933,13 +19933,13 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>100</v>
@@ -19995,13 +19995,13 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>100</v>
@@ -20057,13 +20057,13 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>100</v>
@@ -20119,13 +20119,13 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>100</v>
@@ -20181,13 +20181,13 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>100</v>
@@ -20243,13 +20243,13 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>100</v>
@@ -20305,13 +20305,13 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>100</v>
@@ -20367,13 +20367,13 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>100</v>
@@ -20429,13 +20429,13 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>100</v>
@@ -20491,13 +20491,13 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>100</v>
@@ -20553,13 +20553,13 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>100</v>
@@ -20615,13 +20615,13 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>100</v>
@@ -20677,13 +20677,13 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>100</v>
@@ -20739,13 +20739,13 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>100</v>
@@ -20801,13 +20801,13 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>100</v>
@@ -20863,13 +20863,13 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>100</v>
@@ -20925,13 +20925,13 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>100</v>
@@ -20987,13 +20987,13 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>100</v>
@@ -21049,13 +21049,13 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>100</v>
@@ -21111,13 +21111,13 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>100</v>
@@ -21173,13 +21173,13 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>100</v>
@@ -21235,13 +21235,13 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>100</v>
@@ -21297,13 +21297,13 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>100</v>
@@ -21359,13 +21359,13 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>100</v>
@@ -21421,13 +21421,13 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>100</v>
@@ -21483,13 +21483,13 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>100</v>
@@ -21545,13 +21545,13 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>100</v>
@@ -21607,13 +21607,13 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>100</v>
@@ -21669,13 +21669,13 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>100</v>
@@ -21731,13 +21731,13 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>100</v>
@@ -21793,13 +21793,13 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>100</v>
@@ -21855,13 +21855,13 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>100</v>
@@ -21917,13 +21917,13 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>100</v>
@@ -21979,13 +21979,13 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>100</v>
@@ -22041,13 +22041,13 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>100</v>
@@ -22103,13 +22103,13 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>100</v>
@@ -22165,13 +22165,13 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>100</v>
@@ -22227,13 +22227,13 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>100</v>
@@ -22289,13 +22289,13 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>100</v>
@@ -22351,13 +22351,13 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>100</v>
@@ -22413,13 +22413,13 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>100</v>
@@ -22475,13 +22475,13 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>100</v>
@@ -22537,13 +22537,13 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>100</v>
@@ -22599,13 +22599,13 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>100</v>
@@ -22661,13 +22661,13 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>100</v>
@@ -22723,13 +22723,13 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>100</v>
@@ -22785,13 +22785,13 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>100</v>
@@ -22847,13 +22847,13 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>100</v>
@@ -22909,13 +22909,13 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>100</v>
@@ -22971,13 +22971,13 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>100</v>
@@ -23033,13 +23033,13 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>100</v>
@@ -23095,13 +23095,13 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>100</v>
@@ -23157,13 +23157,13 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>100</v>
@@ -23219,13 +23219,13 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>100</v>
@@ -23281,13 +23281,13 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>100</v>
@@ -23343,13 +23343,13 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>100</v>
@@ -23405,13 +23405,13 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>100</v>
@@ -23467,13 +23467,13 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>100</v>
@@ -23529,13 +23529,13 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>100</v>
@@ -23591,13 +23591,13 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>100</v>
@@ -23653,13 +23653,13 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>100</v>
@@ -23715,13 +23715,13 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>100</v>
@@ -23777,13 +23777,13 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>100</v>
@@ -23839,13 +23839,13 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>100</v>
@@ -23901,13 +23901,13 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>100</v>
@@ -23963,13 +23963,13 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>100</v>
@@ -24025,13 +24025,13 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>100</v>
@@ -24087,13 +24087,13 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>100</v>
@@ -24149,13 +24149,13 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>100</v>
@@ -25755,13 +25755,13 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>100</v>
@@ -25817,13 +25817,13 @@
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>100</v>
@@ -25879,13 +25879,13 @@
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>100</v>
@@ -25941,13 +25941,13 @@
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>100</v>
@@ -26003,13 +26003,13 @@
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>100</v>
@@ -26065,13 +26065,13 @@
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>100</v>
@@ -26127,13 +26127,13 @@
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>100</v>
@@ -26189,13 +26189,13 @@
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>100</v>
@@ -26251,13 +26251,13 @@
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>100</v>
@@ -26313,13 +26313,13 @@
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>100</v>
@@ -26375,13 +26375,13 @@
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>100</v>
@@ -26437,13 +26437,13 @@
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>100</v>
@@ -26499,13 +26499,13 @@
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>100</v>
@@ -26561,13 +26561,13 @@
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>100</v>
@@ -26623,13 +26623,13 @@
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>100</v>
@@ -26685,13 +26685,13 @@
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>100</v>
@@ -28235,13 +28235,13 @@
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>100</v>
@@ -28297,13 +28297,13 @@
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>100</v>
@@ -28359,13 +28359,13 @@
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>100</v>
@@ -28421,13 +28421,13 @@
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>100</v>
@@ -28483,13 +28483,13 @@
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>100</v>
@@ -28545,13 +28545,13 @@
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>100</v>
@@ -28607,13 +28607,13 @@
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>100</v>
@@ -28669,13 +28669,13 @@
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>100</v>
@@ -28731,13 +28731,13 @@
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>100</v>
@@ -28793,13 +28793,13 @@
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>100</v>
@@ -28855,13 +28855,13 @@
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>100</v>
@@ -28917,13 +28917,13 @@
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>100</v>
@@ -28979,13 +28979,13 @@
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>100</v>
@@ -29041,13 +29041,13 @@
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>100</v>
@@ -29103,13 +29103,13 @@
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>100</v>
@@ -29165,13 +29165,13 @@
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>100</v>
@@ -29227,13 +29227,13 @@
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>100</v>
@@ -29289,13 +29289,13 @@
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>100</v>
@@ -29351,13 +29351,13 @@
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>100</v>
@@ -29413,13 +29413,13 @@
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>100</v>
@@ -29475,13 +29475,13 @@
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>100</v>
@@ -29537,13 +29537,13 @@
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>100</v>
@@ -29599,13 +29599,13 @@
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>100</v>
@@ -29661,13 +29661,13 @@
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>100</v>
@@ -29723,13 +29723,13 @@
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>100</v>
@@ -29785,13 +29785,13 @@
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>100</v>
@@ -29847,13 +29847,13 @@
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>100</v>
@@ -29909,13 +29909,13 @@
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>100</v>
@@ -29971,13 +29971,13 @@
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>100</v>
@@ -30033,13 +30033,13 @@
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>100</v>
@@ -30095,13 +30095,13 @@
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>100</v>
@@ -30157,13 +30157,13 @@
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>100</v>
@@ -30219,13 +30219,13 @@
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>100</v>
@@ -30281,13 +30281,13 @@
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>100</v>
@@ -30343,13 +30343,13 @@
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>100</v>
@@ -30405,13 +30405,13 @@
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>100</v>
@@ -30467,13 +30467,13 @@
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>100</v>
@@ -30529,13 +30529,13 @@
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>100</v>
@@ -30591,13 +30591,13 @@
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>100</v>
@@ -30653,13 +30653,13 @@
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>100</v>
@@ -30715,13 +30715,13 @@
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>100</v>
@@ -30777,13 +30777,13 @@
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>100</v>
@@ -30839,13 +30839,13 @@
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>100</v>
@@ -30901,13 +30901,13 @@
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>100</v>
@@ -30963,13 +30963,13 @@
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>100</v>
@@ -31025,13 +31025,13 @@
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>100</v>
@@ -31087,13 +31087,13 @@
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>100</v>
@@ -31149,13 +31149,13 @@
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>100</v>
@@ -31211,13 +31211,13 @@
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>100</v>
@@ -31273,13 +31273,13 @@
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>100</v>
@@ -31335,13 +31335,13 @@
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>100</v>
@@ -31397,13 +31397,13 @@
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390" s="7" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>100</v>
@@ -31459,13 +31459,13 @@
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>100</v>
@@ -31521,13 +31521,13 @@
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392" s="7" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>100</v>
@@ -31583,13 +31583,13 @@
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>100</v>
@@ -31645,13 +31645,13 @@
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>100</v>
@@ -31707,13 +31707,13 @@
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>100</v>
@@ -31769,13 +31769,13 @@
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396" s="7" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>100</v>
@@ -31831,13 +31831,13 @@
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A397" s="7" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>100</v>
@@ -31893,13 +31893,13 @@
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A398" s="7" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>100</v>
@@ -31955,13 +31955,13 @@
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>100</v>
@@ -32017,13 +32017,13 @@
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>100</v>
@@ -32079,13 +32079,13 @@
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>100</v>
@@ -32141,13 +32141,13 @@
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>100</v>
@@ -32203,13 +32203,13 @@
     </row>
     <row r="403" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>100</v>
@@ -32265,13 +32265,13 @@
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>100</v>
@@ -32327,13 +32327,13 @@
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>100</v>
@@ -32389,13 +32389,13 @@
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>100</v>
@@ -32451,13 +32451,13 @@
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>100</v>
@@ -32513,13 +32513,13 @@
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>100</v>
@@ -32575,13 +32575,13 @@
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>100</v>
@@ -32637,13 +32637,13 @@
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>100</v>
@@ -32699,13 +32699,13 @@
     </row>
     <row r="411" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>100</v>
@@ -32761,13 +32761,13 @@
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>100</v>
@@ -32823,13 +32823,13 @@
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>100</v>
@@ -32885,13 +32885,13 @@
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>100</v>
@@ -32947,13 +32947,13 @@
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>100</v>
@@ -33009,13 +33009,13 @@
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>100</v>
@@ -33071,13 +33071,13 @@
     </row>
     <row r="417" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>100</v>
@@ -33133,13 +33133,13 @@
     </row>
     <row r="418" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>100</v>
@@ -33195,13 +33195,13 @@
     </row>
     <row r="419" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>100</v>
@@ -33257,13 +33257,13 @@
     </row>
     <row r="420" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>100</v>
@@ -33319,13 +33319,13 @@
     </row>
     <row r="421" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>100</v>
@@ -33381,13 +33381,13 @@
     </row>
     <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>100</v>
@@ -33443,13 +33443,13 @@
     </row>
     <row r="423" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>100</v>
@@ -33505,13 +33505,13 @@
     </row>
     <row r="424" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>100</v>
@@ -33567,13 +33567,13 @@
     </row>
     <row r="425" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>100</v>
@@ -33629,13 +33629,13 @@
     </row>
     <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>100</v>
@@ -33691,13 +33691,13 @@
     </row>
     <row r="427" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>100</v>
@@ -33753,13 +33753,13 @@
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>100</v>
@@ -33815,13 +33815,13 @@
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>100</v>
@@ -33877,13 +33877,13 @@
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>1869</v>
+        <v>1861</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>100</v>
@@ -33939,13 +33939,13 @@
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>100</v>
@@ -34001,13 +34001,13 @@
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>100</v>
@@ -34063,13 +34063,13 @@
     </row>
     <row r="433" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>100</v>
@@ -34125,13 +34125,13 @@
     </row>
     <row r="434" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>100</v>
@@ -34187,13 +34187,13 @@
     </row>
     <row r="435" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>100</v>
@@ -34249,13 +34249,13 @@
     </row>
     <row r="436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>100</v>
@@ -34311,13 +34311,13 @@
     </row>
     <row r="437" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>100</v>
@@ -34373,13 +34373,13 @@
     </row>
     <row r="438" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A438" s="7" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>100</v>
@@ -34435,13 +34435,13 @@
     </row>
     <row r="439" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>100</v>
@@ -34497,13 +34497,13 @@
     </row>
     <row r="440" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A440" s="7" t="s">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>1900</v>
+        <v>1892</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>100</v>
@@ -34559,13 +34559,13 @@
     </row>
     <row r="441" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
-        <v>1901</v>
+        <v>1893</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>100</v>
@@ -34621,13 +34621,13 @@
     </row>
     <row r="442" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>100</v>
@@ -34683,13 +34683,13 @@
     </row>
     <row r="443" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>100</v>
@@ -34745,13 +34745,13 @@
     </row>
     <row r="444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>100</v>
@@ -34807,13 +34807,13 @@
     </row>
     <row r="445" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A445" s="7" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>100</v>
@@ -34869,13 +34869,13 @@
     </row>
     <row r="446" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A446" s="7" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>100</v>
@@ -34931,13 +34931,13 @@
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>100</v>
@@ -34993,13 +34993,13 @@
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>100</v>
@@ -35055,13 +35055,13 @@
     </row>
     <row r="449" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>100</v>
@@ -35117,13 +35117,13 @@
     </row>
     <row r="450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>100</v>
@@ -35179,13 +35179,13 @@
     </row>
     <row r="451" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="7" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>100</v>
@@ -35241,13 +35241,13 @@
     </row>
     <row r="452" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>100</v>
@@ -35303,13 +35303,13 @@
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>100</v>
@@ -35365,13 +35365,13 @@
     </row>
     <row r="454" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>100</v>
@@ -35427,13 +35427,13 @@
     </row>
     <row r="455" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>100</v>
@@ -35489,13 +35489,13 @@
     </row>
     <row r="456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>100</v>
@@ -35551,13 +35551,13 @@
     </row>
     <row r="457" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>100</v>
@@ -35613,13 +35613,13 @@
     </row>
     <row r="458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A458" s="7" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>100</v>
@@ -37163,13 +37163,13 @@
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>100</v>
@@ -37225,13 +37225,13 @@
     </row>
     <row r="484" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>100</v>
@@ -37287,13 +37287,13 @@
     </row>
     <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>100</v>
@@ -37349,13 +37349,13 @@
     </row>
     <row r="486" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>100</v>
@@ -37411,13 +37411,13 @@
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>100</v>
@@ -37473,13 +37473,13 @@
     </row>
     <row r="488" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>100</v>
@@ -37535,13 +37535,13 @@
     </row>
     <row r="489" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>100</v>
@@ -37597,13 +37597,13 @@
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>100</v>
@@ -37659,13 +37659,13 @@
     </row>
     <row r="491" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>100</v>
@@ -37721,13 +37721,13 @@
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>100</v>
@@ -37783,13 +37783,13 @@
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>100</v>
@@ -37845,13 +37845,13 @@
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>100</v>
@@ -37907,13 +37907,13 @@
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>1982</v>
+        <v>1974</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>100</v>
@@ -37969,13 +37969,13 @@
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>100</v>
@@ -38031,13 +38031,13 @@
     </row>
     <row r="497" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>100</v>
@@ -38093,13 +38093,13 @@
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>100</v>
@@ -38155,13 +38155,13 @@
     </row>
     <row r="499" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>100</v>
@@ -38217,13 +38217,13 @@
     </row>
     <row r="500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>100</v>
@@ -38279,13 +38279,13 @@
     </row>
     <row r="501" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>100</v>
@@ -38341,13 +38341,13 @@
     </row>
     <row r="502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>100</v>
@@ -38403,13 +38403,13 @@
     </row>
     <row r="503" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>100</v>
@@ -38465,13 +38465,13 @@
     </row>
     <row r="504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>100</v>
@@ -38527,13 +38527,13 @@
     </row>
     <row r="505" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>100</v>
@@ -38589,13 +38589,13 @@
     </row>
     <row r="506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>100</v>
@@ -38651,13 +38651,13 @@
     </row>
     <row r="507" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>100</v>
@@ -38713,13 +38713,13 @@
     </row>
     <row r="508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A508" s="7" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>100</v>
@@ -38775,13 +38775,13 @@
     </row>
     <row r="509" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>100</v>
@@ -38837,13 +38837,13 @@
     </row>
     <row r="510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>100</v>
@@ -38899,13 +38899,13 @@
     </row>
     <row r="511" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="B511" s="7" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>100</v>
@@ -38961,13 +38961,13 @@
     </row>
     <row r="512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>100</v>
@@ -39023,13 +39023,13 @@
     </row>
     <row r="513" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="B513" s="7" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>100</v>
@@ -39085,13 +39085,13 @@
     </row>
     <row r="514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>100</v>
@@ -39147,13 +39147,13 @@
     </row>
     <row r="515" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>100</v>
@@ -39209,13 +39209,13 @@
     </row>
     <row r="516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>100</v>
@@ -39271,13 +39271,13 @@
     </row>
     <row r="517" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
-        <v>2031</v>
+        <v>2023</v>
       </c>
       <c r="B517" s="7" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>100</v>
@@ -39333,13 +39333,13 @@
     </row>
     <row r="518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A518" s="7" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>100</v>
@@ -39395,13 +39395,13 @@
     </row>
     <row r="519" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="B519" s="7" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>100</v>
@@ -39457,13 +39457,13 @@
     </row>
     <row r="520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
-        <v>2037</v>
+        <v>2029</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>100</v>
@@ -39519,13 +39519,13 @@
     </row>
     <row r="521" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
-        <v>2039</v>
+        <v>2031</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>100</v>
@@ -39581,13 +39581,13 @@
     </row>
     <row r="522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>2044</v>
+        <v>2036</v>
       </c>
       <c r="F522" s="1" t="s">
         <v>100</v>
@@ -39643,13 +39643,13 @@
     </row>
     <row r="523" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>2046</v>
+        <v>2038</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>100</v>
@@ -39705,13 +39705,13 @@
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>2048</v>
+        <v>2040</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>100</v>
@@ -39767,13 +39767,13 @@
     </row>
     <row r="525" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
-        <v>2049</v>
+        <v>2041</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>100</v>
@@ -39829,13 +39829,13 @@
     </row>
     <row r="526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
-        <v>2051</v>
+        <v>2043</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
       <c r="F526" s="1" t="s">
         <v>100</v>
@@ -39891,13 +39891,13 @@
     </row>
     <row r="527" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>100</v>
@@ -39953,13 +39953,13 @@
     </row>
     <row r="528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>100</v>
@@ -40015,13 +40015,13 @@
     </row>
     <row r="529" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>2058</v>
+        <v>2050</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>100</v>
@@ -40077,13 +40077,13 @@
     </row>
     <row r="530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>100</v>
@@ -40139,13 +40139,13 @@
     </row>
     <row r="531" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>100</v>
@@ -40201,13 +40201,13 @@
     </row>
     <row r="532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>2066</v>
+        <v>2058</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>100</v>
@@ -40263,13 +40263,13 @@
     </row>
     <row r="533" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>100</v>
@@ -40325,13 +40325,13 @@
     </row>
     <row r="534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>100</v>
@@ -40387,13 +40387,13 @@
     </row>
     <row r="535" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
-        <v>2071</v>
+        <v>2063</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>2072</v>
+        <v>2064</v>
       </c>
       <c r="F535" s="1" t="s">
         <v>100</v>
@@ -40449,13 +40449,13 @@
     </row>
     <row r="536" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
-        <v>2073</v>
+        <v>2065</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>2074</v>
+        <v>2066</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>100</v>
@@ -40511,13 +40511,13 @@
     </row>
     <row r="537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>100</v>
@@ -40573,13 +40573,13 @@
     </row>
     <row r="538" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>100</v>
@@ -40635,13 +40635,13 @@
     </row>
     <row r="539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>100</v>
@@ -40697,13 +40697,13 @@
     </row>
     <row r="540" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
-        <v>2083</v>
+        <v>2075</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>100</v>
@@ -40759,13 +40759,13 @@
     </row>
     <row r="541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>2086</v>
+        <v>2078</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>100</v>
@@ -40821,13 +40821,13 @@
     </row>
     <row r="542" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
-        <v>2087</v>
+        <v>2079</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>100</v>
@@ -40883,13 +40883,13 @@
     </row>
     <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>100</v>
@@ -40945,13 +40945,13 @@
     </row>
     <row r="544" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
-        <v>2091</v>
+        <v>2083</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>2092</v>
+        <v>2084</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>100</v>
@@ -41007,13 +41007,13 @@
     </row>
     <row r="545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>100</v>
@@ -41069,13 +41069,13 @@
     </row>
     <row r="546" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>100</v>
@@ -41131,13 +41131,13 @@
     </row>
     <row r="547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>100</v>
@@ -41193,13 +41193,13 @@
     </row>
     <row r="548" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>100</v>
@@ -41255,13 +41255,13 @@
     </row>
     <row r="549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
-        <v>2105</v>
+        <v>2097</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>100</v>
@@ -41317,13 +41317,13 @@
     </row>
     <row r="550" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>100</v>
@@ -41379,13 +41379,13 @@
     </row>
     <row r="551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>2113</v>
+        <v>2105</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>100</v>
@@ -41441,13 +41441,13 @@
     </row>
     <row r="552" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>2116</v>
+        <v>2108</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>100</v>
@@ -41503,13 +41503,13 @@
     </row>
     <row r="553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>100</v>
@@ -41565,13 +41565,13 @@
     </row>
     <row r="554" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>100</v>
@@ -50735,13 +50735,13 @@
     </row>
     <row r="699" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="F699" s="1" t="s">
         <v>100</v>
@@ -50797,13 +50797,13 @@
     </row>
     <row r="700" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -50863,13 +50863,13 @@
     </row>
     <row r="701" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="B701" s="7" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -50929,13 +50929,13 @@
     </row>
     <row r="702" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
-        <v>2129</v>
+        <v>2121</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>2130</v>
+        <v>2122</v>
       </c>
       <c r="F702" s="1" t="s">
         <v>100</v>
@@ -50991,13 +50991,13 @@
     </row>
     <row r="703" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
-        <v>2131</v>
+        <v>2123</v>
       </c>
       <c r="B703" s="7" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>2132</v>
+        <v>2124</v>
       </c>
       <c r="F703" s="1" t="s">
         <v>100</v>
@@ -51053,13 +51053,13 @@
     </row>
     <row r="704" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
       <c r="F704" s="1" t="s">
         <v>100</v>
@@ -51115,13 +51115,13 @@
     </row>
     <row r="705" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="F705" s="1" t="s">
         <v>100</v>
@@ -51177,13 +51177,13 @@
     </row>
     <row r="706" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
-        <v>2137</v>
+        <v>2129</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>2138</v>
+        <v>2130</v>
       </c>
       <c r="F706" s="1" t="s">
         <v>100</v>
@@ -51239,13 +51239,13 @@
     </row>
     <row r="707" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="F707" s="1" t="s">
         <v>100</v>
@@ -51301,13 +51301,13 @@
     </row>
     <row r="708" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
       <c r="F708" s="1" t="s">
         <v>100</v>
@@ -51363,13 +51363,13 @@
     </row>
     <row r="709" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A709" s="7" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="B709" s="7" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -51429,13 +51429,13 @@
     </row>
     <row r="710" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -51495,13 +51495,13 @@
     </row>
     <row r="711" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="F711" s="1" t="s">
         <v>100</v>
@@ -51557,13 +51557,13 @@
     </row>
     <row r="712" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="F712" s="1" t="s">
         <v>100</v>
@@ -51619,13 +51619,13 @@
     </row>
     <row r="713" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="F713" s="1" t="s">
         <v>100</v>
@@ -51681,13 +51681,13 @@
     </row>
     <row r="714" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A714" s="7" t="s">
-        <v>2154</v>
+        <v>2146</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="F714" s="1" t="s">
         <v>100</v>
@@ -51743,13 +51743,13 @@
     </row>
     <row r="715" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="F715" s="1" t="s">
         <v>100</v>
@@ -51805,13 +51805,13 @@
     </row>
     <row r="716" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
       <c r="F716" s="1" t="s">
         <v>100</v>
@@ -53565,13 +53565,13 @@
     </row>
     <row r="744" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>2186</v>
+        <v>2178</v>
       </c>
       <c r="F744" s="1" t="s">
         <v>100</v>
@@ -53627,13 +53627,13 @@
     </row>
     <row r="745" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
-        <v>2187</v>
+        <v>2179</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>2188</v>
+        <v>2180</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -53693,13 +53693,13 @@
     </row>
     <row r="746" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -53759,13 +53759,13 @@
     </row>
     <row r="747" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="F747" s="1" t="s">
         <v>100</v>
@@ -53821,13 +53821,13 @@
     </row>
     <row r="748" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>2194</v>
+        <v>2186</v>
       </c>
       <c r="F748" s="1" t="s">
         <v>100</v>
@@ -53883,13 +53883,13 @@
     </row>
     <row r="749" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
-        <v>2195</v>
+        <v>2187</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>2196</v>
+        <v>2188</v>
       </c>
       <c r="F749" s="1" t="s">
         <v>100</v>
@@ -53945,13 +53945,13 @@
     </row>
     <row r="750" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>2198</v>
+        <v>2190</v>
       </c>
       <c r="F750" s="1" t="s">
         <v>100</v>
@@ -54007,13 +54007,13 @@
     </row>
     <row r="751" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>2200</v>
+        <v>2192</v>
       </c>
       <c r="F751" s="1" t="s">
         <v>100</v>
@@ -54069,13 +54069,13 @@
     </row>
     <row r="752" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
-        <v>2201</v>
+        <v>2193</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="F752" s="1" t="s">
         <v>100</v>
@@ -57527,13 +57527,13 @@
     </row>
     <row r="807" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B807" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="B807" s="7" t="s">
-        <v>1147</v>
-      </c>
       <c r="C807" s="7" t="s">
-        <v>1148</v>
+        <v>2200</v>
       </c>
       <c r="F807" s="1" t="s">
         <v>100</v>
@@ -57589,13 +57589,13 @@
     </row>
     <row r="808" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A808" s="4" t="s">
-        <v>1151</v>
+        <v>2197</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>1150</v>
+        <v>2201</v>
       </c>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -57655,13 +57655,13 @@
     </row>
     <row r="809" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A809" s="4" t="s">
-        <v>1152</v>
+        <v>2198</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>1154</v>
+        <v>2202</v>
       </c>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -57721,13 +57721,13 @@
     </row>
     <row r="810" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
-        <v>1155</v>
+        <v>2199</v>
       </c>
       <c r="B810" s="7" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C810" s="7" t="s">
-        <v>1157</v>
+        <v>2203</v>
       </c>
       <c r="F810" s="1" t="s">
         <v>100</v>

--- a/2024/1 achiz pre re.xlsx
+++ b/2024/1 achiz pre re.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\1-achiz\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E0F9B-638F-4788-A438-3CD21B22772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A9C6BB-0914-4E81-8916-5882A3889DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="2187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="2188">
   <si>
     <t>title</t>
   </si>
@@ -6584,6 +6584,9 @@
   </si>
   <si>
     <t>dec/DataSet/Data/CAPI_R123_C2</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAPI_R122_C1</t>
   </si>
 </sst>
 </file>
@@ -6984,8 +6987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A772" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A799" sqref="A799"/>
+    <sheetView tabSelected="1" topLeftCell="A787" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C802" sqref="C802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -57114,7 +57117,7 @@
         <v>1132</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
